--- a/jacobi/src/test/resources/jacobi/test/data/FrancisQRCreateBulgeTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/FrancisQRCreateBulgeTest.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="24915" windowHeight="9525"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="24915" windowHeight="9525" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="5x5" sheetId="1" r:id="rId1"/>
     <sheet name="5x5(2)" sheetId="2" r:id="rId2"/>
     <sheet name="Step2 6x6" sheetId="4" r:id="rId3"/>
-    <sheet name="rand" sheetId="3" r:id="rId4"/>
+    <sheet name="Bulge 5x5" sheetId="5" r:id="rId4"/>
+    <sheet name="Bulge Step 2 6x6" sheetId="6" r:id="rId5"/>
+    <sheet name="rand" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="25">
   <si>
     <t>#1</t>
   </si>
@@ -77,6 +79,21 @@
   </si>
   <si>
     <t>Q*A*Q^t</t>
+  </si>
+  <si>
+    <t>H^2 - tr*H + det*I =</t>
+  </si>
+  <si>
+    <t>H^2=</t>
+  </si>
+  <si>
+    <t>tr*H=</t>
+  </si>
+  <si>
+    <t>H*A=</t>
+  </si>
+  <si>
+    <t>Verification=</t>
   </si>
 </sst>
 </file>
@@ -428,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2323,10 +2340,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2920,173 +2937,75 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
         <f>1-2*L18</f>
         <v>-0.90417405112759774</v>
       </c>
-      <c r="B25">
-        <f t="shared" ref="B25:C25" si="15">-2*M18</f>
+      <c r="C26">
+        <f>-2*M18</f>
         <v>0.11153851119712095</v>
       </c>
-      <c r="C25">
-        <f t="shared" si="15"/>
+      <c r="D26">
+        <f>-2*N18</f>
         <v>0.41234505670304683</v>
       </c>
-      <c r="F25">
-        <f>A25</f>
-        <v>-0.90417405112759774</v>
-      </c>
-      <c r="G25">
-        <f t="shared" ref="G25:H25" si="16">B25</f>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <f>-2*L19</f>
         <v>0.11153851119712095</v>
       </c>
-      <c r="H25">
-        <f t="shared" si="16"/>
-        <v>0.41234505670304683</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" ref="A26:A27" si="17">-2*L19</f>
-        <v>0.11153851119712095</v>
-      </c>
-      <c r="B26">
+      <c r="C27">
         <f>1-2*M19</f>
         <v>0.99346654289679914</v>
       </c>
-      <c r="C26">
-        <f t="shared" ref="C26" si="18">-2*N19</f>
+      <c r="D27">
+        <f>-2*N19</f>
         <v>-2.4153440016113494E-2</v>
       </c>
-      <c r="F26">
-        <f t="shared" ref="F26:F27" si="19">A26</f>
-        <v>0.11153851119712095</v>
-      </c>
-      <c r="G26">
-        <f t="shared" ref="G26:G27" si="20">B26</f>
-        <v>0.99346654289679914</v>
-      </c>
-      <c r="H26">
-        <f t="shared" ref="H26:H27" si="21">C26</f>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <f>-2*L20</f>
+        <v>0.41234505670304683</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28" si="15">-2*M20</f>
         <v>-2.4153440016113494E-2</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" si="17"/>
-        <v>0.41234505670304683</v>
-      </c>
-      <c r="B27">
-        <f t="shared" ref="B27" si="22">-2*M20</f>
-        <v>-2.4153440016113494E-2</v>
-      </c>
-      <c r="C27">
+      <c r="D28">
         <f>1-2*N20</f>
         <v>0.91070750823079805</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="19"/>
-        <v>0.41234505670304683</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="20"/>
-        <v>-2.4153440016113494E-2</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="21"/>
-        <v>0.91070750823079805</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="array" ref="A30:D33">MMULT(F25:I28,A18:D21)</f>
-        <v>4705.0372509965891</v>
-      </c>
-      <c r="B30">
-        <v>-1697.9357440719912</v>
-      </c>
-      <c r="C30">
-        <v>-12699.462895194905</v>
-      </c>
-      <c r="D30">
-        <v>-4790.166592076208</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>-2.7711166694643907E-13</v>
-      </c>
-      <c r="B31">
-        <v>-11637.793492172783</v>
-      </c>
-      <c r="C31">
-        <v>600.85491744525325</v>
-      </c>
-      <c r="D31">
-        <v>-2739.489240842584</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>-4.5474735088646412E-13</v>
-      </c>
-      <c r="B32">
-        <v>977.52908248407618</v>
-      </c>
-      <c r="C32">
-        <v>-531.64243323071696</v>
-      </c>
-      <c r="D32">
-        <v>219.62857516096551</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>0</v>
-      </c>
-      <c r="B33">
-        <v>2744.8563725275167</v>
-      </c>
-      <c r="C33">
-        <v>-1.1368683772161603E-13</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3096,10 +3015,1818 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>43.105469514442774</v>
+      </c>
+      <c r="B3">
+        <v>-35.099054632744668</v>
+      </c>
+      <c r="C3">
+        <v>1.2241899453635057</v>
+      </c>
+      <c r="D3">
+        <v>39.636810881029305</v>
+      </c>
+      <c r="E3">
+        <v>-71.601383483568611</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <f>D6+E7</f>
+        <v>-47.207067455763678</v>
+      </c>
+      <c r="J3">
+        <f t="array" ref="J3:N7">MMULT(A3:E7,A3:E7)</f>
+        <v>-58.310282045953954</v>
+      </c>
+      <c r="K3">
+        <v>50.737319937402873</v>
+      </c>
+      <c r="L3">
+        <v>6822.3877178320945</v>
+      </c>
+      <c r="M3">
+        <v>-1484.9355726120762</v>
+      </c>
+      <c r="N3">
+        <v>-6601.2707826944425</v>
+      </c>
+      <c r="P3">
+        <f>$H$3*A3</f>
+        <v>-2034.8828070806649</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:T3" si="0">$H$3*B3</f>
+        <v>1656.9234396815123</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>-57.790417329442661</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>-1871.1376049920982</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>3380.0913400348268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>54.599527085799792</v>
+      </c>
+      <c r="B4">
+        <v>-41.258075175895172</v>
+      </c>
+      <c r="C4">
+        <v>-90.41518314137555</v>
+      </c>
+      <c r="D4">
+        <v>-30.730747542594543</v>
+      </c>
+      <c r="E4">
+        <v>11.173087528491848</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <f>D6*E7-D7*E6</f>
+        <v>-4124.089749253706</v>
+      </c>
+      <c r="J4">
+        <v>100.86685722568291</v>
+      </c>
+      <c r="K4">
+        <v>-8750.5072887928382</v>
+      </c>
+      <c r="L4">
+        <v>1961.2738344556028</v>
+      </c>
+      <c r="M4">
+        <v>-2658.1246974024493</v>
+      </c>
+      <c r="N4">
+        <v>-2975.6120760459503</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P7" si="1">$H$3*A4</f>
+        <v>-2577.483558192147</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q7" si="2">$H$3*B4</f>
+        <v>1947.6727379234524</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R7" si="3">$H$3*C4</f>
+        <v>4268.2356495801423</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:S7" si="4">$H$3*D4</f>
+        <v>1450.7084722093045</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T7" si="5">$H$3*E4</f>
+        <v>-527.44869664666658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>94.412729978752509</v>
+      </c>
+      <c r="C5">
+        <v>-10.643000823071702</v>
+      </c>
+      <c r="D5">
+        <v>99.878097247992002</v>
+      </c>
+      <c r="E5">
+        <v>-10.656029894246856</v>
+      </c>
+      <c r="J5">
+        <v>5154.8904077192001</v>
+      </c>
+      <c r="K5">
+        <v>-4900.1222738971719</v>
+      </c>
+      <c r="L5">
+        <v>671.40549534225102</v>
+      </c>
+      <c r="M5">
+        <v>-13250.703652730255</v>
+      </c>
+      <c r="N5">
+        <v>912.04331386986678</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>-4456.9481127897716</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>502.42485778649421</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="4"/>
+        <v>-4714.9520741392826</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="5"/>
+        <v>503.03992202834564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>91.055762487619205</v>
+      </c>
+      <c r="D6">
+        <v>-91.853702411556952</v>
+      </c>
+      <c r="E6">
+        <v>2.1977326950842127</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>8596.8231167530139</v>
+      </c>
+      <c r="L6">
+        <v>-9332.9154654963386</v>
+      </c>
+      <c r="M6">
+        <v>17554.709975786212</v>
+      </c>
+      <c r="N6">
+        <v>-1074.0414426980897</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="3"/>
+        <v>-4298.4755219890358</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="4"/>
+        <v>4336.1439258040118</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="5"/>
+        <v>-103.74851558657774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>10.52495073608975</v>
+      </c>
+      <c r="E7">
+        <v>44.646634955793274</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>958.35741441928121</v>
+      </c>
+      <c r="M7">
+        <v>-496.85205936717841</v>
+      </c>
+      <c r="N7">
+        <v>2016.453041222717</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="4"/>
+        <v>-496.85205936717841</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="5"/>
+        <v>-2107.6367080309897</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>J3-P3+H4</f>
+        <v>-2147.5172242189951</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ref="B10:E10" si="6">K3-Q3</f>
+        <v>-1606.1861197441094</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="6"/>
+        <v>6880.1781351615373</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="6"/>
+        <v>386.20203238002205</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="6"/>
+        <v>-9981.3621227292697</v>
+      </c>
+      <c r="G10">
+        <f>A10</f>
+        <v>-2147.5172242189951</v>
+      </c>
+      <c r="I10">
+        <f>SQRT(SUMPRODUCT(G10:G12,G10:G12))</f>
+        <v>6193.4066790161251</v>
+      </c>
+      <c r="J10">
+        <f>G10-I10</f>
+        <v>-8340.9239032351197</v>
+      </c>
+      <c r="K10">
+        <f>J10/(SQRT(SUMPRODUCT(J$10:J$12,J$10:J$12)))</f>
+        <v>-0.82059200741840399</v>
+      </c>
+      <c r="M10">
+        <f t="array" ref="M10:O12">MMULT(K10:K12,TRANSPOSE(K10:K12))</f>
+        <v>0.67337124263896597</v>
+      </c>
+      <c r="N10">
+        <v>-0.21622594431690931</v>
+      </c>
+      <c r="O10">
+        <v>-0.41615952858258753</v>
+      </c>
+      <c r="Q10">
+        <f>1-2*M10</f>
+        <v>-0.34674248527793194</v>
+      </c>
+      <c r="R10">
+        <f t="shared" ref="R10:S11" si="7">-2*N10</f>
+        <v>0.43245188863381862</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="7"/>
+        <v>0.83231905716517507</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" ref="A11:A14" si="8">J4-P4</f>
+        <v>2678.3504154178299</v>
+      </c>
+      <c r="B11">
+        <f>K4-Q4+H4</f>
+        <v>-14822.269775969997</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:C14" si="9">L4-R4</f>
+        <v>-2306.9618151245395</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:D14" si="10">M4-S4</f>
+        <v>-4108.8331696117539</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:E13" si="11">N4-T4</f>
+        <v>-2448.1633793992837</v>
+      </c>
+      <c r="G11">
+        <f>A11</f>
+        <v>2678.3504154178299</v>
+      </c>
+      <c r="J11">
+        <f>G11</f>
+        <v>2678.3504154178299</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ref="K11:K12" si="12">J11/(SQRT(SUMPRODUCT(J$10:J$12,J$10:J$12)))</f>
+        <v>0.26349993950972017</v>
+      </c>
+      <c r="M11">
+        <v>-0.21622594431690931</v>
+      </c>
+      <c r="N11">
+        <v>6.9432218121626185E-2</v>
+      </c>
+      <c r="O11">
+        <v>0.1336328036546339</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" ref="Q11:R12" si="13">-2*M11</f>
+        <v>0.43245188863381862</v>
+      </c>
+      <c r="R11">
+        <f>1-2*N11</f>
+        <v>0.8611355637567476</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="7"/>
+        <v>-0.26726560730926779</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="8"/>
+        <v>5154.8904077192001</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ref="B12:B14" si="14">K5-Q5</f>
+        <v>-443.17416110740032</v>
+      </c>
+      <c r="C12">
+        <f>L5-R5+H4</f>
+        <v>-3955.1091116979492</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="10"/>
+        <v>-8535.7515785909727</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="11"/>
+        <v>409.00339184152114</v>
+      </c>
+      <c r="G12">
+        <f>A12</f>
+        <v>5154.8904077192001</v>
+      </c>
+      <c r="J12">
+        <f>G12</f>
+        <v>5154.8904077192001</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="12"/>
+        <v>0.50714548133588611</v>
+      </c>
+      <c r="M12">
+        <v>-0.41615952858258753</v>
+      </c>
+      <c r="N12">
+        <v>0.1336328036546339</v>
+      </c>
+      <c r="O12">
+        <v>0.25719653923940761</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="13"/>
+        <v>0.83231905716517507</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="13"/>
+        <v>-0.26726560730926779</v>
+      </c>
+      <c r="S12">
+        <f>1-2*O12</f>
+        <v>0.48560692152118479</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="14"/>
+        <v>8596.8231167530139</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="9"/>
+        <v>-5034.4399435073028</v>
+      </c>
+      <c r="D13">
+        <f>M6-S6+H4</f>
+        <v>9094.4763007284946</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="11"/>
+        <v>-970.29292711151197</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="9"/>
+        <v>958.35741441928121</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f>N7-T7+H4</f>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="array" ref="A18:E22">MMULT(Q10:U14,MMULT(A3:E7,Q10:U14))</f>
+        <v>-11.74478819943403</v>
+      </c>
+      <c r="B18">
+        <v>79.463548341089421</v>
+      </c>
+      <c r="C18">
+        <v>-35.769225001438272</v>
+      </c>
+      <c r="D18">
+        <v>56.097107605596804</v>
+      </c>
+      <c r="E18">
+        <v>20.789847707294648</v>
+      </c>
+      <c r="G18">
+        <f t="array" ref="G18:K22">MMULT(Q10:U14,A3:E7)</f>
+        <v>8.6651709782574375</v>
+      </c>
+      <c r="H18">
+        <v>72.909715303357416</v>
+      </c>
+      <c r="I18">
+        <v>-48.383067785235269</v>
+      </c>
+      <c r="J18">
+        <v>56.097107605596804</v>
+      </c>
+      <c r="K18">
+        <v>20.789847707294648</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-117.60331430881175</v>
+      </c>
+      <c r="B19">
+        <v>-17.093559362846232</v>
+      </c>
+      <c r="C19">
+        <v>38.774448946713974</v>
+      </c>
+      <c r="D19">
+        <v>-36.016306202714517</v>
+      </c>
+      <c r="E19">
+        <v>-18.494620187320645</v>
+      </c>
+      <c r="G19">
+        <v>65.658636239850281</v>
+      </c>
+      <c r="H19">
+        <v>-75.940723906801978</v>
+      </c>
+      <c r="I19">
+        <v>-74.485818374127732</v>
+      </c>
+      <c r="J19">
+        <v>-36.016306202714517</v>
+      </c>
+      <c r="K19">
+        <v>-18.494620187320645</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>21.240802680567612</v>
+      </c>
+      <c r="B20">
+        <v>27.674896671769634</v>
+      </c>
+      <c r="C20">
+        <v>20.042741077756148</v>
+      </c>
+      <c r="D20">
+        <v>89.705240298562899</v>
+      </c>
+      <c r="E20">
+        <v>-67.756019889170886</v>
+      </c>
+      <c r="G20">
+        <v>21.284927979538104</v>
+      </c>
+      <c r="H20">
+        <v>27.660727616374917</v>
+      </c>
+      <c r="I20">
+        <v>20.015470587935162</v>
+      </c>
+      <c r="J20">
+        <v>89.705240298562899</v>
+      </c>
+      <c r="K20">
+        <v>-67.756019889170886</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>75.787446383151334</v>
+      </c>
+      <c r="B21">
+        <v>-24.336073660261992</v>
+      </c>
+      <c r="C21">
+        <v>44.217308508376938</v>
+      </c>
+      <c r="D21">
+        <v>-91.853702411556952</v>
+      </c>
+      <c r="E21">
+        <v>2.1977326950842127</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>91.055762487619205</v>
+      </c>
+      <c r="J21">
+        <v>-91.853702411556952</v>
+      </c>
+      <c r="K21">
+        <v>2.1977326950842127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>10.52495073608975</v>
+      </c>
+      <c r="E22">
+        <v>44.646634955793274</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>10.52495073608975</v>
+      </c>
+      <c r="K22">
+        <v>44.646634955793274</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>-84.116202915948975</v>
+      </c>
+      <c r="B3" s="1">
+        <v>73.25491881631379</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44.644443429017713</v>
+      </c>
+      <c r="D3" s="1">
+        <v>42.84022640770246</v>
+      </c>
+      <c r="E3" s="1">
+        <v>95.569968373525654</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-9.750768418961627</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>81.031191271404964</v>
+      </c>
+      <c r="C4">
+        <v>-67.772429003410252</v>
+      </c>
+      <c r="D4">
+        <v>35.981679817562451</v>
+      </c>
+      <c r="E4">
+        <v>-56.65132782011846</v>
+      </c>
+      <c r="F4" s="1">
+        <v>93.484541687534914</v>
+      </c>
+      <c r="H4">
+        <f>B4</f>
+        <v>81.031191271404964</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:K7" si="0">C4</f>
+        <v>-67.772429003410252</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>35.981679817562451</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>-56.65132782011846</v>
+      </c>
+      <c r="M4">
+        <f>J6</f>
+        <v>16.632282949004136</v>
+      </c>
+      <c r="N4">
+        <f>K6</f>
+        <v>1.6443591044819073E-2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <f>M4+N5</f>
+        <v>-32.208672663471077</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>-85.739971843752173</v>
+      </c>
+      <c r="C5">
+        <v>71.321720998147356</v>
+      </c>
+      <c r="D5">
+        <v>-18.132167902534022</v>
+      </c>
+      <c r="E5">
+        <v>-12.558004240406035</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-58.90722103493664</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H7" si="1">B5</f>
+        <v>-85.739971843752173</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>71.321720998147356</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>-18.132167902534022</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>-12.558004240406035</v>
+      </c>
+      <c r="M5">
+        <f>J7</f>
+        <v>-1.1480399720524588</v>
+      </c>
+      <c r="N5">
+        <f>K7</f>
+        <v>-48.840955612475213</v>
+      </c>
+      <c r="P5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <f>M4*N5-M5*N4</f>
+        <v>-812.31771534663574</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>-54.589255321159349</v>
+      </c>
+      <c r="D6">
+        <v>16.632282949004136</v>
+      </c>
+      <c r="E6">
+        <v>1.6443591044819073E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-4.9135810090672862</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>-54.589255321159349</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>16.632282949004136</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>1.6443591044819073E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>-1.1480399720524588</v>
+      </c>
+      <c r="E7">
+        <v>-48.840955612475213</v>
+      </c>
+      <c r="F7" s="1">
+        <v>28.037919268644856</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>-1.1480399720524588</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>-48.840955612475213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>70.093610448971305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="array" ref="A12:D15">MMULT(H4:K7,H4:K7)</f>
+        <v>12376.860113398105</v>
+      </c>
+      <c r="B12">
+        <v>-12289.540036696148</v>
+      </c>
+      <c r="C12">
+        <v>4807.9949099292699</v>
+      </c>
+      <c r="D12">
+        <v>-971.94147408542767</v>
+      </c>
+      <c r="F12">
+        <f>H4*$Q$4</f>
+        <v>-2609.9071151917974</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:I15" si="2">I4*$Q$4</f>
+        <v>2182.8599813791743</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>-1158.9221471256926</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>1824.664073709188</v>
+      </c>
+      <c r="K12">
+        <f>Q5</f>
+        <v>-812.31771534663574</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-13062.734408305061</v>
+      </c>
+      <c r="B13">
+        <v>11887.415583830223</v>
+      </c>
+      <c r="C13">
+        <v>-4665.4478908814108</v>
+      </c>
+      <c r="D13">
+        <v>4574.6715472135411</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:F15" si="3">H5*$Q$4</f>
+        <v>2761.5706872906403</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>-2297.1779654247398</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>584.01306065181529</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>404.47664788571973</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f>K12</f>
+        <v>-812.31771534663574</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4680.4812142076007</v>
+      </c>
+      <c r="B14">
+        <v>-4801.3435779893098</v>
+      </c>
+      <c r="C14">
+        <v>1266.4355013534903</v>
+      </c>
+      <c r="D14">
+        <v>685.00247356235229</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>1758.2474555818683</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>-535.70375715070566</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>-0.52962624137456182</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f>L13</f>
+        <v>-812.31771534663574</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>62.67064715326832</v>
+      </c>
+      <c r="C15">
+        <v>36.976843664418134</v>
+      </c>
+      <c r="D15">
+        <v>2385.4200672399706</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>36.976843664418126</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>1573.1023518933346</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f>M14</f>
+        <v>-812.31771534663574</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>A12-F12+K12</f>
+        <v>14174.449513243268</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18:D21" si="4">B12-G12+L12</f>
+        <v>-14472.400018075321</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="4"/>
+        <v>5966.9170570549622</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="4"/>
+        <v>-2796.6055477946156</v>
+      </c>
+      <c r="F18">
+        <f>A18</f>
+        <v>14174.449513243268</v>
+      </c>
+      <c r="H18">
+        <f>SQRT(SUMPRODUCT(F18:F20,F18:F20))</f>
+        <v>21753.862993926588</v>
+      </c>
+      <c r="I18">
+        <f>F18+H18</f>
+        <v>35928.31250716986</v>
+      </c>
+      <c r="J18">
+        <f>I18/(SQRT(SUMPRODUCT(I$18:I$20,I$18:I$20)))</f>
+        <v>0.90873073603424814</v>
+      </c>
+      <c r="L18">
+        <f t="array" ref="L18:N20">MMULT(J18:J20,TRANSPOSE(J18:J20))</f>
+        <v>0.82579155061334641</v>
+      </c>
+      <c r="M18">
+        <v>-0.36371253004612686</v>
+      </c>
+      <c r="N18">
+        <v>0.10757816245129277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" ref="A19:A21" si="5">A13-F13+K13</f>
+        <v>-15824.305095595701</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="4"/>
+        <v>13372.275833908328</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="4"/>
+        <v>-5249.4609515332259</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="4"/>
+        <v>4170.1948993278211</v>
+      </c>
+      <c r="F19">
+        <f>A19</f>
+        <v>-15824.305095595701</v>
+      </c>
+      <c r="I19">
+        <f>F19</f>
+        <v>-15824.305095595701</v>
+      </c>
+      <c r="J19">
+        <f>I19/(SQRT(SUMPRODUCT(I$18:I$20,I$18:I$20)))</f>
+        <v>-0.4002423552144706</v>
+      </c>
+      <c r="L19">
+        <v>-0.36371253004612686</v>
+      </c>
+      <c r="M19">
+        <v>0.16019394290762645</v>
+      </c>
+      <c r="N19">
+        <v>-4.7381843049630938E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="5"/>
+        <v>4680.4812142076007</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="4"/>
+        <v>-6559.5910335711778</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="4"/>
+        <v>989.82154315756009</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="4"/>
+        <v>685.53209980372685</v>
+      </c>
+      <c r="F20">
+        <f>A20</f>
+        <v>4680.4812142076007</v>
+      </c>
+      <c r="I20">
+        <f>F20</f>
+        <v>4680.4812142076007</v>
+      </c>
+      <c r="J20">
+        <f>I20/(SQRT(SUMPRODUCT(I$18:I$20,I$18:I$20)))</f>
+        <v>0.11838288085288047</v>
+      </c>
+      <c r="L20">
+        <v>0.10757816245129277</v>
+      </c>
+      <c r="M20">
+        <v>-4.7381843049630938E-2</v>
+      </c>
+      <c r="N20">
+        <v>1.4014506479027293E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="4"/>
+        <v>62.67064715326832</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="4"/>
+        <v>7.1054273576010019E-15</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="array" ref="H24:K27">MMULT(B25:E28,A18:D21)</f>
+        <v>-21753.862993926592</v>
+      </c>
+      <c r="I24">
+        <v>20568.63733766885</v>
+      </c>
+      <c r="J24">
+        <v>-7919.4981344545067</v>
+      </c>
+      <c r="K24">
+        <v>4708.2286237832177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <f>1-2*L18</f>
+        <v>-0.65158310122669283</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:D25" si="6">-2*M18</f>
+        <v>0.72742506009225372</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="6"/>
+        <v>-0.21515632490258554</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>2.0463630789890885E-12</v>
+      </c>
+      <c r="I25">
+        <v>-2061.2368275284043</v>
+      </c>
+      <c r="J25">
+        <v>866.68688120199954</v>
+      </c>
+      <c r="K25">
+        <v>864.75756215256888</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26:B27" si="7">-2*L19</f>
+        <v>0.72742506009225372</v>
+      </c>
+      <c r="C26">
+        <f>1-2*M19</f>
+        <v>0.6796121141847471</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:D27" si="8">-2*N19</f>
+        <v>9.4763686099261876E-2</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>-9.0949470177292824E-13</v>
+      </c>
+      <c r="I26">
+        <v>-1994.6976215252398</v>
+      </c>
+      <c r="J26">
+        <v>-819.20039249768899</v>
+      </c>
+      <c r="K26">
+        <v>1663.2077239734822</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="7"/>
+        <v>-0.21515632490258554</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C26:C27" si="9">-2*M20</f>
+        <v>9.4763686099261876E-2</v>
+      </c>
+      <c r="D27">
+        <f>1-2*N20</f>
+        <v>0.9719709870419454</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>62.67064715326832</v>
+      </c>
+      <c r="J27">
+        <v>7.1054273576010019E-15</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="array" ref="A32:F37">MMULT(A24:F29,A3:F8)</f>
+        <v>-84.116202915948975</v>
+      </c>
+      <c r="B32">
+        <v>73.25491881631379</v>
+      </c>
+      <c r="C32">
+        <v>44.644443429017713</v>
+      </c>
+      <c r="D32">
+        <v>42.84022640770246</v>
+      </c>
+      <c r="E32">
+        <v>95.569968373525654</v>
+      </c>
+      <c r="F32">
+        <v>-9.750768418961627</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>-115.16795907546494</v>
+      </c>
+      <c r="C33">
+        <v>107.78580020473777</v>
+      </c>
+      <c r="D33">
+        <v>-40.213388723024558</v>
+      </c>
+      <c r="E33">
+        <v>27.774502937809267</v>
+      </c>
+      <c r="F33">
+        <v>-102.70634835870445</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0.67419564507555663</v>
+      </c>
+      <c r="C34">
+        <v>-6.0013367012049095</v>
+      </c>
+      <c r="D34">
+        <v>15.427271081010174</v>
+      </c>
+      <c r="E34">
+        <v>-49.74260910031888</v>
+      </c>
+      <c r="F34">
+        <v>27.503308278083839</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>-25.559409094394841</v>
+      </c>
+      <c r="C35">
+        <v>-31.718796441569303</v>
+      </c>
+      <c r="D35">
+        <v>6.7061394139213508</v>
+      </c>
+      <c r="E35">
+        <v>11.0148314161756</v>
+      </c>
+      <c r="F35">
+        <v>-30.471914011120827</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>-1.1480399720524588</v>
+      </c>
+      <c r="E36">
+        <v>-48.840955612475213</v>
+      </c>
+      <c r="F36">
+        <v>28.037919268644856</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>70.093610448971305</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="array" ref="A41:F46">MMULT(A32:F37,A24:F29)</f>
+        <v>-84.116202915948975</v>
+      </c>
+      <c r="B41">
+        <v>-24.473525910180875</v>
+      </c>
+      <c r="C41">
+        <v>87.688066075127111</v>
+      </c>
+      <c r="D41">
+        <v>30.108870056223331</v>
+      </c>
+      <c r="E41">
+        <v>95.569968373525654</v>
+      </c>
+      <c r="F41">
+        <v>-9.750768418961627</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>162.09975305688835</v>
+      </c>
+      <c r="C42">
+        <v>-14.334292940872011</v>
+      </c>
+      <c r="D42">
+        <v>-4.0929525716516792</v>
+      </c>
+      <c r="E42">
+        <v>27.774502937809267</v>
+      </c>
+      <c r="F42">
+        <v>-102.70634835870445</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>-8.1240921488257776</v>
+      </c>
+      <c r="C43">
+        <v>-2.1262092417182936</v>
+      </c>
+      <c r="D43">
+        <v>14.281093655384371</v>
+      </c>
+      <c r="E43">
+        <v>-49.74260910031888</v>
+      </c>
+      <c r="F43">
+        <v>27.503308278083839</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>-7.8618366748986812</v>
+      </c>
+      <c r="C44">
+        <v>-39.513534515104482</v>
+      </c>
+      <c r="D44">
+        <v>9.0116514033864856</v>
+      </c>
+      <c r="E44">
+        <v>11.0148314161756</v>
+      </c>
+      <c r="F44">
+        <v>-30.471914011120827</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>0.24700806122807406</v>
+      </c>
+      <c r="C45">
+        <v>-0.10879249954098458</v>
+      </c>
+      <c r="D45">
+        <v>-1.1158615447994358</v>
+      </c>
+      <c r="E45">
+        <v>-48.840955612475213</v>
+      </c>
+      <c r="F45">
+        <v>28.037919268644856</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>70.093610448971305</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:H11"/>
+      <selection activeCell="D6" sqref="D6:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3107,1001 +4834,1001 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">200*RAND()-100</f>
-        <v>78.241460603293461</v>
+        <v>33.680228554808167</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:L16" ca="1" si="0">200*RAND()-100</f>
-        <v>-69.256234834314157</v>
+        <v>19.050767292377515</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>-90.651765242453351</v>
+        <v>52.526327298819041</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.68567835716803</v>
+        <v>81.564199842755812</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>-39.774143485513868</v>
+        <v>-63.815572186941225</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.136302231006582</v>
+        <v>-1.9630202663127818</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>-89.87124223948075</v>
+        <v>4.3405753975092694</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.78805145299296</v>
+        <v>-68.543893166770516</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>97.363625356808626</v>
+        <v>38.864998327760333</v>
       </c>
       <c r="J1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0656364453913056</v>
+        <v>-10.700044890411093</v>
       </c>
       <c r="K1">
         <f t="shared" ca="1" si="0"/>
-        <v>-58.04435642287531</v>
+        <v>-87.462413002218568</v>
       </c>
       <c r="L1">
         <f t="shared" ca="1" si="0"/>
-        <v>-26.47984368752887</v>
+        <v>31.736905026081786</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:L20" ca="1" si="1">200*RAND()-100</f>
-        <v>21.798760534328537</v>
+        <v>58.764035073992375</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>54.917149406586759</v>
+        <v>-74.416693191689021</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>-29.563432695311363</v>
+        <v>55.423567642104587</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>-87.419836038888945</v>
+        <v>-90.286294207520996</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>-92.345318765187812</v>
+        <v>58.065167317568751</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>37.003175527886725</v>
+        <v>-26.003749246678723</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>94.101007037132945</v>
+        <v>-60.242108117378777</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3678519517594196</v>
+        <v>-31.649025658214526</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>-87.392392448486575</v>
+        <v>32.027916559632274</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>37.398312849216353</v>
+        <v>-65.856568035002823</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>81.994794996171521</v>
+        <v>-79.973135177887713</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>-49.627538086058486</v>
+        <v>45.849511690033097</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>-83.375103331726081</v>
+        <v>-50.290660354814179</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>-45.361691045479361</v>
+        <v>-88.994833472526835</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>86.473864340301162</v>
+        <v>62.405940055776796</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>-25.820637486428495</v>
+        <v>83.231196655390363</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>-54.19518813712871</v>
+        <v>85.153318853234282</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>11.313355784872201</v>
+        <v>70.344550475700146</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>71.058534961750553</v>
+        <v>-4.1052205901845014</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>-26.630325834360164</v>
+        <v>64.338181250613474</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1462251853225354</v>
+        <v>18.627089497268145</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>43.726448483745429</v>
+        <v>-76.728044963275167</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>-50.543046761948297</v>
+        <v>-6.1365141874705245</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>-89.910695917496099</v>
+        <v>-31.209902676233398</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>60.754213360509226</v>
+        <v>32.068725475561934</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>-26.840104345142805</v>
+        <v>85.663663328673977</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>-35.876692489962878</v>
+        <v>55.689123932571761</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>-35.60012302672304</v>
+        <v>-58.503522533214692</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>58.605778288622673</v>
+        <v>-36.333488389419259</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>38.006832753624252</v>
+        <v>-25.077125117520296</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>79.175573542169104</v>
+        <v>-66.581189679000886</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>-61.89640603475317</v>
+        <v>-87.234448335000167</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.498706565728867</v>
+        <v>-32.112783373966479</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>-45.828678936429235</v>
+        <v>52.323046388105752</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>83.929386994161206</v>
+        <v>88.084820086887675</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>65.589310617398411</v>
+        <v>3.7338878501638391</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>-56.708681595470956</v>
+        <v>-70.444564311456759</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>-89.29545226465612</v>
+        <v>-11.99854197903278</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>-26.8184489221928</v>
+        <v>-6.5962339196172053</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>98.714737156786043</v>
+        <v>-9.2007572585826267</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>-61.366831999306058</v>
+        <v>82.045198373399103</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>30.592281620058799</v>
+        <v>50.413087698443945</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>-99.287893387590074</v>
+        <v>-77.093717217513785</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>37.244180247334469</v>
+        <v>43.196424671592951</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>53.497960672822217</v>
+        <v>11.452491257700288</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>-27.158404763550152</v>
+        <v>87.341341044591587</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>69.485711399296861</v>
+        <v>44.260084081349049</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>39.085825119134682</v>
+        <v>38.049964149071144</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>55.320481930992656</v>
+        <v>30.569952317491726</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>28.3582769349633</v>
+        <v>64.697484407233702</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>49.926425051028275</v>
+        <v>-0.86687938000015663</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>28.738627283787622</v>
+        <v>-49.371613166671736</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.889263352574588</v>
+        <v>-68.82371046879868</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>29.158312192391605</v>
+        <v>-94.411943042774411</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>53.958224868254092</v>
+        <v>23.916986409629132</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>63.679811976602821</v>
+        <v>47.961189328284945</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>74.944149240115166</v>
+        <v>-12.162673294018859</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>48.670971503580205</v>
+        <v>15.578062146599294</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>-87.709307737912212</v>
+        <v>-13.000940177655295</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>17.762062756208309</v>
+        <v>-9.2927758861229393</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>85.451546000589332</v>
+        <v>59.273606052710988</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>-69.630911615152073</v>
+        <v>-5.6172631417573626</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>56.526834776203941</v>
+        <v>69.34586260205208</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>66.586688684438201</v>
+        <v>86.748733447993089</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>-13.803360783682649</v>
+        <v>-33.65235845623225</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6297757919050184</v>
+        <v>96.355944618585823</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>-28.111355872782397</v>
+        <v>75.155190149578232</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>-42.407147285647653</v>
+        <v>38.106534375764227</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>79.478074906849571</v>
+        <v>-1.3789004315474926</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>-76.277312326089032</v>
+        <v>22.399552176163624</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>-27.288663950672841</v>
+        <v>51.010398746859323</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>77.130697810577004</v>
+        <v>97.183109538901448</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>-54.598105203798262</v>
+        <v>-41.89072908684588</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>-48.095386049723828</v>
+        <v>-38.466634261678401</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>-23.634466779130278</v>
+        <v>-14.342147431823022</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>71.532901104228642</v>
+        <v>49.191539894853861</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>51.598877393788968</v>
+        <v>-84.18514422327128</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>31.668321223447862</v>
+        <v>-46.834892904487077</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>-88.342342439397598</v>
+        <v>-33.800249466466553</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>-93.683718634822682</v>
+        <v>-44.979666348768241</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.1560519097616435</v>
+        <v>68.287201511542605</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>18.512511257395062</v>
+        <v>64.41743571109123</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.575794020833797</v>
+        <v>96.329680939732953</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>34.815803833080935</v>
+        <v>97.3746507185665</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>19.31482566368328</v>
+        <v>50.441698563259649</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>81.168327185893503</v>
+        <v>-85.772824377958173</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>-29.689860023509468</v>
+        <v>44.722148353454088</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0049362940135751</v>
+        <v>52.77659755904628</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>76.524883931146775</v>
+        <v>37.269532220636933</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>-29.351242370604695</v>
+        <v>-48.676575845089332</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>-40.866423896722168</v>
+        <v>-43.842748060254657</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>-86.705211201089867</v>
+        <v>21.888989455051515</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6039277663253699</v>
+        <v>-3.8220580637070327</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>14.470294913626546</v>
+        <v>-76.218166437385406</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>42.504293983791825</v>
+        <v>-19.954170170804446</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>15.335947298761113</v>
+        <v>-47.053971600972979</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.7416668824085519</v>
+        <v>-4.5094901169651109</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>52.150838375268108</v>
+        <v>-34.323046602177484</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>-89.766696579171935</v>
+        <v>-85.909855705280165</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>-38.175910986288365</v>
+        <v>93.295216200734217</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>-96.804299867537424</v>
+        <v>-89.03859493021622</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>-30.347384590480473</v>
+        <v>97.201035812368332</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>-65.409071925727886</v>
+        <v>47.191493789511355</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>-45.535492900625464</v>
+        <v>-3.6482986450186559</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.0318475730026364</v>
+        <v>-2.6541694429704137</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>-75.792071544506911</v>
+        <v>25.54543259020312</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.415524619860605</v>
+        <v>-36.653083593820156</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="0"/>
-        <v>-57.448641866226403</v>
+        <v>51.016864875311711</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>-47.557131785178399</v>
+        <v>-20.648156166370441</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>85.08191865611488</v>
+        <v>64.979073458328202</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-29.883181806616193</v>
+        <v>-32.478460770696316</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>43.952476108874663</v>
+        <v>45.195954056640943</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>25.347007645019232</v>
+        <v>-90.296559891100614</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>78.980240778665205</v>
+        <v>5.9826057656838572</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>-88.036806018032237</v>
+        <v>75.703216771914384</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>-52.760681391349998</v>
+        <v>29.794434296910651</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>30.454399280243308</v>
+        <v>44.385123624698821</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.581586607953057</v>
+        <v>-60.909730154363388</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>57.230186999980162</v>
+        <v>-98.107907974101337</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="0"/>
-        <v>-53.440507031000251</v>
+        <v>-12.526128529951848</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18427785392900375</v>
+        <v>-4.5238095470737392</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>-42.277745673385091</v>
+        <v>-51.127171309504725</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>71.97064380531549</v>
+        <v>-19.502306772729128</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.0037333004538738</v>
+        <v>56.547430039551017</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>-49.417466997680037</v>
+        <v>75.377244086018294</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>-80.668079150968254</v>
+        <v>62.873061158559864</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.0555092504389449</v>
+        <v>29.59440993432554</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>17.091654296306771</v>
+        <v>89.98732070409784</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>-62.53810961208999</v>
+        <v>-2.3674045989737778</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>-31.812599918978535</v>
+        <v>80.689273172424379</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8174717938076981</v>
+        <v>-79.722456700376583</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
-        <v>98.302197225955808</v>
+        <v>-84.442400441184034</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>-44.185609797403579</v>
+        <v>89.352372268543746</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>-52.770069916899388</v>
+        <v>-46.438606156082059</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>-44.337006759292684</v>
+        <v>15.600471172137702</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>21.03711187564042</v>
+        <v>43.643951703580939</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>17.505976785554964</v>
+        <v>-67.089525088811882</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>45.742592039678641</v>
+        <v>-11.279111032884288</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>-71.61422311650594</v>
+        <v>-94.341721200651591</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>-35.036120545794972</v>
+        <v>42.496381973121373</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.21378758491890437</v>
+        <v>75.567011196304549</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>-84.550108420221221</v>
+        <v>-5.8363718859598208</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>-86.723099771268863</v>
+        <v>-41.382148188443324</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="0"/>
-        <v>-62.944949649786544</v>
+        <v>-33.396265205453048</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>67.591692428902547</v>
+        <v>-46.326532359948146</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>87.119135226954967</v>
+        <v>-86.605779749103931</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>74.407922649789668</v>
+        <v>-26.499146823324864</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>-92.313271668837231</v>
+        <v>15.838003145656046</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>-97.492480914973839</v>
+        <v>-38.632241988589499</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>-31.138862970054632</v>
+        <v>97.907816254714589</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.937652778925695</v>
+        <v>-54.849462468345365</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>51.195528232488613</v>
+        <v>-73.330601501588575</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>26.003699715305871</v>
+        <v>-61.643819602311467</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.7021265522643603</v>
+        <v>-93.88456968371959</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="0"/>
-        <v>-39.173833657040149</v>
+        <v>17.42435502105559</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="0"/>
-        <v>-97.06851684754794</v>
+        <v>46.268566168181735</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>69.803885274028204</v>
+        <v>-75.217914646449202</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>-51.932255265792172</v>
+        <v>56.00451262282678</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>-59.328950139118433</v>
+        <v>70.599362790888506</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>12.855036875390297</v>
+        <v>-90.85992612876457</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>79.840936830109882</v>
+        <v>-46.810263129266907</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>90.262336647409825</v>
+        <v>-70.029932254568024</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.970290910773713</v>
+        <v>68.833760103502442</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.900097860513597</v>
+        <v>-21.637536946811252</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.75291326525581326</v>
+        <v>70.112154546020292</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>-32.839941219160167</v>
+        <v>-28.892938287343227</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="0"/>
-        <v>21.79124217223351</v>
+        <v>-58.67703426732718</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="0"/>
-        <v>63.482019941172354</v>
+        <v>55.765053957466876</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>77.016495431665248</v>
+        <v>32.517517980899186</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>43.31523065782423</v>
+        <v>12.976002447565776</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>-48.3293119298853</v>
+        <v>-56.664222973690734</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>-28.786588056268727</v>
+        <v>56.638750034368968</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.24946775746576577</v>
+        <v>-30.777973906882124</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>60.614886880105786</v>
+        <v>-97.490729873371265</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.457787788130162</v>
+        <v>-51.335209334455875</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>12.503961028022289</v>
+        <v>-21.132954409882359</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>-61.62580723980966</v>
+        <v>30.622665070388507</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>-47.781626430764689</v>
+        <v>-13.448199781655788</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="0"/>
-        <v>76.224610724160414</v>
+        <v>54.762551920180016</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="0"/>
-        <v>-77.090396694697603</v>
+        <v>-24.790879900324242</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>47.527016259439563</v>
+        <v>-27.954016220589352</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>49.274116691122259</v>
+        <v>-34.080273566021773</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>-61.926266694162145</v>
+        <v>51.828308299410935</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>29.577824604413195</v>
+        <v>58.65594204612853</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>-71.545593516126957</v>
+        <v>-98.102712725701366</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>-35.153245913347632</v>
+        <v>-66.709641798570402</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>52.438344842038504</v>
+        <v>-0.36148705415754989</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>99.451646912429709</v>
+        <v>57.979175259310495</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>85.300540307511937</v>
+        <v>-94.166483587854088</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.158718936599257</v>
+        <v>-18.235370294818793</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>-25.250671596613827</v>
+        <v>70.488223332043844</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="1"/>
-        <v>90.251155453710396</v>
+        <v>-29.571101413253899</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>-43.272622357234305</v>
+        <v>-89.706947300492686</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>-87.710460037045962</v>
+        <v>48.466534480943778</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>68.91945365840138</v>
+        <v>27.919188985549297</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>11.019307841761503</v>
+        <v>-78.251445901967557</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>41.800602714575746</v>
+        <v>-17.28644941963114</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>-26.134311335243467</v>
+        <v>15.866992534546554</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.895454052761437</v>
+        <v>91.559783360299889</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>-54.577159368905455</v>
+        <v>1.8772892020029843</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>39.436266765162173</v>
+        <v>87.675522694154807</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.641291448048648</v>
+        <v>-73.0418759704786</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="1"/>
-        <v>99.828153960024764</v>
+        <v>39.681694177117521</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="1"/>
-        <v>-56.659748330440564</v>
+        <v>27.580856785017389</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>70.638807829256791</v>
+        <v>-89.417883688052541</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>-62.06106888477612</v>
+        <v>1.0640763323789031</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>-38.87479096995645</v>
+        <v>-63.991433098353333</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>78.913938565471256</v>
+        <v>62.962724871990986</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>-38.62200194535972</v>
+        <v>90.074957346389368</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>-59.81735610002319</v>
+        <v>-60.696650190833857</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>13.054785273066557</v>
+        <v>-52.30560010286294</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>39.021787935943166</v>
+        <v>-45.633630341821288</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>15.420024515123984</v>
+        <v>57.476879498233387</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>-64.251614381184709</v>
+        <v>15.664977865478448</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="1"/>
-        <v>-36.305978717841029</v>
+        <v>-82.764653382476936</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="1"/>
-        <v>-86.395242938989597</v>
+        <v>-51.120861511635418</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>33.153757687347536</v>
+        <v>4.6272341707171591</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>97.762232905456528</v>
+        <v>-52.110468587164306</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7236706979530538</v>
+        <v>-99.103154303719563</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.3873084534946685</v>
+        <v>-97.853524720767851</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>-98.022592656584777</v>
+        <v>-42.925618969584448</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>82.884574652933821</v>
+        <v>-3.2902941478076144</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>-58.49542642704202</v>
+        <v>96.719126674116495</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>-72.27529818948004</v>
+        <v>-23.012719490326191</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.923356912268531</v>
+        <v>15.499914973765968</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>-49.774248786551837</v>
+        <v>-2.7193793888000215</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="1"/>
-        <v>-55.716871795107757</v>
+        <v>26.912608702761858</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="1"/>
-        <v>69.839976997962907</v>
+        <v>-20.629378502425524</v>
       </c>
     </row>
   </sheetData>

--- a/jacobi/src/test/resources/jacobi/test/data/FrancisQRCreateBulgeTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/FrancisQRCreateBulgeTest.xlsx
@@ -3786,8 +3786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4459,7 +4459,7 @@
         <v>0.6796121141847471</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="D26:D27" si="8">-2*N19</f>
+        <f t="shared" ref="D26" si="8">-2*N19</f>
         <v>9.4763686099261876E-2</v>
       </c>
       <c r="E26">
@@ -4490,7 +4490,7 @@
         <v>-0.21515632490258554</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C26:C27" si="9">-2*M20</f>
+        <f t="shared" ref="C27" si="9">-2*M20</f>
         <v>9.4763686099261876E-2</v>
       </c>
       <c r="D27">
@@ -4834,1001 +4834,1001 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">200*RAND()-100</f>
-        <v>33.680228554808167</v>
+        <v>59.715892992609184</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:L16" ca="1" si="0">200*RAND()-100</f>
-        <v>19.050767292377515</v>
+        <v>-90.590731453598124</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>52.526327298819041</v>
+        <v>74.681087651434495</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>81.564199842755812</v>
+        <v>-49.811996759208441</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>-63.815572186941225</v>
+        <v>20.862319421520326</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.9630202663127818</v>
+        <v>56.631270733508671</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3405753975092694</v>
+        <v>-79.891325305093531</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>-68.543893166770516</v>
+        <v>-29.778796667172315</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>38.864998327760333</v>
+        <v>49.633197316929483</v>
       </c>
       <c r="J1">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.700044890411093</v>
+        <v>42.300086887888625</v>
       </c>
       <c r="K1">
         <f t="shared" ca="1" si="0"/>
-        <v>-87.462413002218568</v>
+        <v>-15.937936282246866</v>
       </c>
       <c r="L1">
         <f t="shared" ca="1" si="0"/>
-        <v>31.736905026081786</v>
+        <v>-40.163806505164288</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:L20" ca="1" si="1">200*RAND()-100</f>
-        <v>58.764035073992375</v>
+        <v>94.410235956573018</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>-74.416693191689021</v>
+        <v>-91.338212463806329</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>55.423567642104587</v>
+        <v>14.101700483999807</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>-90.286294207520996</v>
+        <v>39.719043680410863</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>58.065167317568751</v>
+        <v>-5.9535851650436911</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>-26.003749246678723</v>
+        <v>75.654186094031019</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>-60.242108117378777</v>
+        <v>72.811117919980035</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>-31.649025658214526</v>
+        <v>99.954517775384346</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>32.027916559632274</v>
+        <v>16.470077008914984</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>-65.856568035002823</v>
+        <v>38.045652979871136</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>-79.973135177887713</v>
+        <v>79.201552718249047</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>45.849511690033097</v>
+        <v>-9.6719466920150978</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>-50.290660354814179</v>
+        <v>69.122948276852924</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>-88.994833472526835</v>
+        <v>-53.571505837509761</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>62.405940055776796</v>
+        <v>61.658396530795471</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>83.231196655390363</v>
+        <v>-24.763475604619174</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>85.153318853234282</v>
+        <v>-59.893851058540015</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>70.344550475700146</v>
+        <v>-95.329648198935345</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.1052205901845014</v>
+        <v>12.481609371981818</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>64.338181250613474</v>
+        <v>46.228103465700144</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>18.627089497268145</v>
+        <v>72.873227010935409</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>-76.728044963275167</v>
+        <v>-78.556654614962071</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.1365141874705245</v>
+        <v>72.530164167097837</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>-31.209902676233398</v>
+        <v>-3.4194081712841893</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>32.068725475561934</v>
+        <v>-0.38226008387776744</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>85.663663328673977</v>
+        <v>-60.757610605164643</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>55.689123932571761</v>
+        <v>-10.031010000824821</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>-58.503522533214692</v>
+        <v>-68.975641445063161</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>-36.333488389419259</v>
+        <v>41.515916605238147</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>-25.077125117520296</v>
+        <v>-27.807617330170302</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>-66.581189679000886</v>
+        <v>-72.317328745503659</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>-87.234448335000167</v>
+        <v>68.558572961495202</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>-32.112783373966479</v>
+        <v>45.124605695892569</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>52.323046388105752</v>
+        <v>-11.896567398303333</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>88.084820086887675</v>
+        <v>-75.383827827594132</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7338878501638391</v>
+        <v>-14.413772349598304</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>-70.444564311456759</v>
+        <v>87.687264225911008</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.99854197903278</v>
+        <v>34.173164401398111</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.5962339196172053</v>
+        <v>8.7474342790032864</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.2007572585826267</v>
+        <v>62.734773166849379</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>82.045198373399103</v>
+        <v>35.08227653765644</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>50.413087698443945</v>
+        <v>46.775198330566639</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>-77.093717217513785</v>
+        <v>30.890810904733229</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>43.196424671592951</v>
+        <v>36.991855352168017</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>11.452491257700288</v>
+        <v>-19.252221414973022</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>87.341341044591587</v>
+        <v>14.996136385060893</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>44.260084081349049</v>
+        <v>12.529113314236426</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>38.049964149071144</v>
+        <v>47.426870744577371</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>30.569952317491726</v>
+        <v>-63.011133748535642</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>64.697484407233702</v>
+        <v>82.276896957420973</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.86687938000015663</v>
+        <v>-90.798474855642837</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>-49.371613166671736</v>
+        <v>-36.890231258225569</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>-68.82371046879868</v>
+        <v>94.735263758007875</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>-94.411943042774411</v>
+        <v>91.963304393359579</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>23.916986409629132</v>
+        <v>84.668110224688206</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>47.961189328284945</v>
+        <v>79.11375056711961</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.162673294018859</v>
+        <v>-26.592295397223722</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>15.578062146599294</v>
+        <v>-52.461801272048916</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>-13.000940177655295</v>
+        <v>89.370417094044086</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.2927758861229393</v>
+        <v>80.313547017795827</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>59.273606052710988</v>
+        <v>56.209933178755364</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.6172631417573626</v>
+        <v>52.431314720499785</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>69.34586260205208</v>
+        <v>-58.778132310643528</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>86.748733447993089</v>
+        <v>86.975636721236953</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>-33.65235845623225</v>
+        <v>7.2734534561399045</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>96.355944618585823</v>
+        <v>-42.25322503889344</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>75.155190149578232</v>
+        <v>-58.046414226125378</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>38.106534375764227</v>
+        <v>-57.780960917353788</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3789004315474926</v>
+        <v>-25.01591282447815</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>22.399552176163624</v>
+        <v>-3.5203764624137222</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>51.010398746859323</v>
+        <v>16.5128794570293</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>97.183109538901448</v>
+        <v>-28.302902308302407</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>-41.89072908684588</v>
+        <v>86.750276863784023</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>-38.466634261678401</v>
+        <v>-2.9017273184284136</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.342147431823022</v>
+        <v>16.710378116905275</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>49.191539894853861</v>
+        <v>54.892547707407658</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>-84.18514422327128</v>
+        <v>-43.428683917878018</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>-46.834892904487077</v>
+        <v>14.213393361320655</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>-33.800249466466553</v>
+        <v>-32.72349634997201</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>-44.979666348768241</v>
+        <v>-48.514046145706381</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>68.287201511542605</v>
+        <v>-49.212351404173035</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>64.41743571109123</v>
+        <v>-39.504860393821218</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>96.329680939732953</v>
+        <v>81.693488193435172</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>97.3746507185665</v>
+        <v>23.252874960753658</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>50.441698563259649</v>
+        <v>-75.533134229607924</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>-85.772824377958173</v>
+        <v>2.5754057650915172</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>44.722148353454088</v>
+        <v>68.430204047758338</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>52.77659755904628</v>
+        <v>-37.557189145604887</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>37.269532220636933</v>
+        <v>-19.215953652256701</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>-48.676575845089332</v>
+        <v>-2.9457524776323822</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>-43.842748060254657</v>
+        <v>-82.297840972154006</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>21.888989455051515</v>
+        <v>36.733725896840042</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.8220580637070327</v>
+        <v>-40.358839318992132</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>-76.218166437385406</v>
+        <v>99.94319276508989</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.954170170804446</v>
+        <v>30.340939609861692</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>-47.053971600972979</v>
+        <v>13.847255000997933</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.5094901169651109</v>
+        <v>7.2817026931260074</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>-34.323046602177484</v>
+        <v>-20.369439251287488</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>-85.909855705280165</v>
+        <v>80.4153291322516</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>93.295216200734217</v>
+        <v>-87.48621376165049</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>-89.03859493021622</v>
+        <v>53.615838717427636</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>97.201035812368332</v>
+        <v>-3.9333102858184645</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>47.191493789511355</v>
+        <v>-86.518413953675676</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.6482986450186559</v>
+        <v>-62.359219612386575</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6541694429704137</v>
+        <v>-46.220624983428074</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>25.54543259020312</v>
+        <v>19.798024221988371</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>-36.653083593820156</v>
+        <v>-76.76004149603412</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="0"/>
-        <v>51.016864875311711</v>
+        <v>-37.530660767145932</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>-20.648156166370441</v>
+        <v>85.705063767060608</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>64.979073458328202</v>
+        <v>36.482598550601068</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-32.478460770696316</v>
+        <v>-40.756277459895941</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>45.195954056640943</v>
+        <v>12.865243203276293</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>-90.296559891100614</v>
+        <v>-11.344985289023413</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9826057656838572</v>
+        <v>61.432816792876167</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>75.703216771914384</v>
+        <v>-16.317630764585672</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>29.794434296910651</v>
+        <v>96.136508839384277</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>44.385123624698821</v>
+        <v>-79.211029154459908</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>-60.909730154363388</v>
+        <v>2.0057307515568965</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>-98.107907974101337</v>
+        <v>-66.467784532701643</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.526128529951848</v>
+        <v>-39.721474493201846</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.5238095470737392</v>
+        <v>-25.277972669078409</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>-51.127171309504725</v>
+        <v>-1.5579850724099202</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.502306772729128</v>
+        <v>-31.07244016775401</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>56.547430039551017</v>
+        <v>63.599180850875001</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>75.377244086018294</v>
+        <v>18.458532197033108</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>62.873061158559864</v>
+        <v>30.947498029702416</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>29.59440993432554</v>
+        <v>-0.44047306509207829</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>89.98732070409784</v>
+        <v>-48.47370669722828</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.3674045989737778</v>
+        <v>-73.175087375677379</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>80.689273172424379</v>
+        <v>-24.309279085184983</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>-79.722456700376583</v>
+        <v>-70.492990961191595</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
-        <v>-84.442400441184034</v>
+        <v>-65.621292485442709</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>89.352372268543746</v>
+        <v>-84.227826707033756</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>-46.438606156082059</v>
+        <v>-36.369929794035237</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>15.600471172137702</v>
+        <v>96.833452591494023</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>43.643951703580939</v>
+        <v>97.388438423043652</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>-67.089525088811882</v>
+        <v>-1.5006478465662241</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.279111032884288</v>
+        <v>7.7463593785018361</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>-94.341721200651591</v>
+        <v>-99.919661742957345</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>42.496381973121373</v>
+        <v>83.175819071664279</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>75.567011196304549</v>
+        <v>27.142160280987056</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.8363718859598208</v>
+        <v>0.60346954872190395</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>-41.382148188443324</v>
+        <v>91.307997245652416</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="0"/>
-        <v>-33.396265205453048</v>
+        <v>-25.749744538662583</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>-46.326532359948146</v>
+        <v>72.262136019908979</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>-86.605779749103931</v>
+        <v>-78.786855201529505</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>-26.499146823324864</v>
+        <v>64.163330193659959</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>15.838003145656046</v>
+        <v>-3.9614471221688348</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>-38.632241988589499</v>
+        <v>-14.98019471362575</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>97.907816254714589</v>
+        <v>-56.95320998649678</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>-54.849462468345365</v>
+        <v>63.869367716634059</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>-73.330601501588575</v>
+        <v>-53.537772594080081</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>-61.643819602311467</v>
+        <v>-34.086456773405189</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>-93.88456968371959</v>
+        <v>35.583907925874428</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="0"/>
-        <v>17.42435502105559</v>
+        <v>-89.387780643882351</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="0"/>
-        <v>46.268566168181735</v>
+        <v>21.983411634433708</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>-75.217914646449202</v>
+        <v>-83.684642666101155</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>56.00451262282678</v>
+        <v>50.997270230019865</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>70.599362790888506</v>
+        <v>1.0457958307039235</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>-90.85992612876457</v>
+        <v>-53.534072919768036</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>-46.810263129266907</v>
+        <v>-84.148043980723799</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>-70.029932254568024</v>
+        <v>-29.884013540781723</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>68.833760103502442</v>
+        <v>23.873931117907915</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.637536946811252</v>
+        <v>76.820384704954705</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>70.112154546020292</v>
+        <v>11.605020449211125</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>-28.892938287343227</v>
+        <v>87.415106935683724</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="0"/>
-        <v>-58.67703426732718</v>
+        <v>43.932513239456114</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="0"/>
-        <v>55.765053957466876</v>
+        <v>-74.782848418487234</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>32.517517980899186</v>
+        <v>-95.210084303317657</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>12.976002447565776</v>
+        <v>52.357026565812816</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>-56.664222973690734</v>
+        <v>84.07207817076025</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>56.638750034368968</v>
+        <v>-96.796472768877706</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>-30.777973906882124</v>
+        <v>-65.618792614513907</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>-97.490729873371265</v>
+        <v>-5.1096409574168007</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>-51.335209334455875</v>
+        <v>-77.708883965699755</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.132954409882359</v>
+        <v>-45.871296150286</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>30.622665070388507</v>
+        <v>70.1583623446042</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>-13.448199781655788</v>
+        <v>43.646219490660712</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="0"/>
-        <v>54.762551920180016</v>
+        <v>20.778455951360414</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.790879900324242</v>
+        <v>15.885561445062393</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>-27.954016220589352</v>
+        <v>50.078658543482987</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>-34.080273566021773</v>
+        <v>-29.736062136438377</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>51.828308299410935</v>
+        <v>41.139228832571206</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>58.65594204612853</v>
+        <v>46.823804471339344</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>-98.102712725701366</v>
+        <v>26.357952593703175</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>-66.709641798570402</v>
+        <v>-97.940975933697686</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.36148705415754989</v>
+        <v>93.700011564879645</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>57.979175259310495</v>
+        <v>53.865935975541959</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>-94.166483587854088</v>
+        <v>-12.039865308391612</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.235370294818793</v>
+        <v>28.629439073934975</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>70.488223332043844</v>
+        <v>2.9495159441354986</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="1"/>
-        <v>-29.571101413253899</v>
+        <v>-10.810667613167467</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>-89.706947300492686</v>
+        <v>32.097795729258053</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>48.466534480943778</v>
+        <v>-57.93840346670256</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>27.919188985549297</v>
+        <v>-53.535800762210343</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>-78.251445901967557</v>
+        <v>-13.436271380054905</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.28644941963114</v>
+        <v>-49.564791037612579</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>15.866992534546554</v>
+        <v>90.833474322320683</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>91.559783360299889</v>
+        <v>31.581916469544012</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8772892020029843</v>
+        <v>3.7540318698760871</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>87.675522694154807</v>
+        <v>69.902636310733072</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>-73.0418759704786</v>
+        <v>94.001743905720701</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="1"/>
-        <v>39.681694177117521</v>
+        <v>41.619984603658821</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="1"/>
-        <v>27.580856785017389</v>
+        <v>-87.864953683644302</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>-89.417883688052541</v>
+        <v>78.336492639725407</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0640763323789031</v>
+        <v>27.279629920457012</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>-63.991433098353333</v>
+        <v>-89.386678538771321</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>62.962724871990986</v>
+        <v>-44.146206269726093</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>90.074957346389368</v>
+        <v>-89.036656340458052</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>-60.696650190833857</v>
+        <v>-75.967573622695369</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>-52.30560010286294</v>
+        <v>-3.2644031708538108</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>-45.633630341821288</v>
+        <v>85.948630884464563</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>57.476879498233387</v>
+        <v>84.553032852682833</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>15.664977865478448</v>
+        <v>88.213898305583626</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="1"/>
-        <v>-82.764653382476936</v>
+        <v>-85.605806385526037</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="1"/>
-        <v>-51.120861511635418</v>
+        <v>-86.33471878435914</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6272341707171591</v>
+        <v>63.957494262899445</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>-52.110468587164306</v>
+        <v>22.258492235092504</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>-99.103154303719563</v>
+        <v>-82.32078432025051</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>-97.853524720767851</v>
+        <v>-37.680696646264124</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>-42.925618969584448</v>
+        <v>47.248014118366598</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.2902941478076144</v>
+        <v>-33.953519456948825</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>96.719126674116495</v>
+        <v>-13.377316792116602</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.012719490326191</v>
+        <v>95.93790256478394</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>15.499914973765968</v>
+        <v>-75.810557309636039</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.7193793888000215</v>
+        <v>-75.83698050390413</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="1"/>
-        <v>26.912608702761858</v>
+        <v>49.333182750634478</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="1"/>
-        <v>-20.629378502425524</v>
+        <v>-70.0978357218996</v>
       </c>
     </row>
   </sheetData>

--- a/jacobi/src/test/resources/jacobi/test/data/FrancisQRCreateBulgeTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/FrancisQRCreateBulgeTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="24915" windowHeight="9525" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="24915" windowHeight="9525" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="5x5" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="26">
   <si>
     <t>#1</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Verification=</t>
+  </si>
+  <si>
+    <t>I=</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,7 +1494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:K4"/>
     </sheetView>
   </sheetViews>
@@ -2342,8 +2345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:N21"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3015,10 +3018,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A26" sqref="A26:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3775,6 +3778,129 @@
       </c>
       <c r="K22">
         <v>44.646634955793274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>Q10</f>
+        <v>-0.34674248527793194</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26:E26" si="15">R10</f>
+        <v>0.43245188863381862</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="15"/>
+        <v>0.83231905716517507</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" ref="A27:A30" si="16">Q11</f>
+        <v>0.43245188863381862</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27:B30" si="17">R11</f>
+        <v>0.8611355637567476</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:C30" si="18">S11</f>
+        <v>-0.26726560730926779</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27:D30" si="19">T11</f>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27:E30" si="20">U11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="16"/>
+        <v>0.83231905716517507</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="17"/>
+        <v>-0.26726560730926779</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="18"/>
+        <v>0.48560692152118479</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="20"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3784,10 +3910,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4814,6 +4940,265 @@
       </c>
       <c r="F46">
         <v>70.093610448971305</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>6</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="array" ref="A58:F63">MMULT(A49:F54,TRANSPOSE(A24:F29))</f>
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>-0.65158310122669283</v>
+      </c>
+      <c r="C59">
+        <v>0.72742506009225372</v>
+      </c>
+      <c r="D59">
+        <v>-0.21515632490258554</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>0.72742506009225372</v>
+      </c>
+      <c r="C60">
+        <v>0.6796121141847471</v>
+      </c>
+      <c r="D60">
+        <v>9.4763686099261876E-2</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>-0.21515632490258554</v>
+      </c>
+      <c r="C61">
+        <v>9.4763686099261876E-2</v>
+      </c>
+      <c r="D61">
+        <v>0.9719709870419454</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4834,1001 +5219,1001 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">200*RAND()-100</f>
-        <v>59.715892992609184</v>
+        <v>-46.925372575573434</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:L16" ca="1" si="0">200*RAND()-100</f>
-        <v>-90.590731453598124</v>
+        <v>-13.806434893713799</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>74.681087651434495</v>
+        <v>-19.06468718746099</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>-49.811996759208441</v>
+        <v>85.098428340448976</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>20.862319421520326</v>
+        <v>68.850016756807349</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>56.631270733508671</v>
+        <v>-91.929674456254489</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>-79.891325305093531</v>
+        <v>51.305876360876056</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>-29.778796667172315</v>
+        <v>-33.979223465604321</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>49.633197316929483</v>
+        <v>-34.264973924702886</v>
       </c>
       <c r="J1">
         <f t="shared" ca="1" si="0"/>
-        <v>42.300086887888625</v>
+        <v>66.588692243478533</v>
       </c>
       <c r="K1">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.937936282246866</v>
+        <v>88.916947674173457</v>
       </c>
       <c r="L1">
         <f t="shared" ca="1" si="0"/>
-        <v>-40.163806505164288</v>
+        <v>-2.9244715345020893</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:L20" ca="1" si="1">200*RAND()-100</f>
-        <v>94.410235956573018</v>
+        <v>-76.165866383188501</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>-91.338212463806329</v>
+        <v>-24.653132371660334</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>14.101700483999807</v>
+        <v>94.500678151501461</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>39.719043680410863</v>
+        <v>-29.730188915386634</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.9535851650436911</v>
+        <v>-24.179001932480375</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>75.654186094031019</v>
+        <v>50.87366160743511</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>72.811117919980035</v>
+        <v>-97.156592526860123</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>99.954517775384346</v>
+        <v>-24.870471492104485</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.470077008914984</v>
+        <v>71.357314169765829</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>38.045652979871136</v>
+        <v>70.043662771641436</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>79.201552718249047</v>
+        <v>-61.144246792332879</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.6719466920150978</v>
+        <v>12.068685023903342</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>69.122948276852924</v>
+        <v>96.602634331353187</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>-53.571505837509761</v>
+        <v>83.526563711228079</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>61.658396530795471</v>
+        <v>-87.370140173728601</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.763475604619174</v>
+        <v>-48.978993512220704</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>-59.893851058540015</v>
+        <v>68.353200840208018</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>-95.329648198935345</v>
+        <v>61.562997194824447</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>12.481609371981818</v>
+        <v>-3.005036920562759</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>46.228103465700144</v>
+        <v>7.9621387619660027</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>72.873227010935409</v>
+        <v>56.065970572335516</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>-78.556654614962071</v>
+        <v>-4.7089536928559568</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>72.530164167097837</v>
+        <v>74.462746072455587</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.4194081712841893</v>
+        <v>41.63846897401757</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.38226008387776744</v>
+        <v>-29.69563981812027</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>-60.757610605164643</v>
+        <v>-71.710598642581644</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.031010000824821</v>
+        <v>-31.708912787620932</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>-68.975641445063161</v>
+        <v>90.424145711600346</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>41.515916605238147</v>
+        <v>21.188354469938204</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>-27.807617330170302</v>
+        <v>75.980304895134509</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>-72.317328745503659</v>
+        <v>69.580825493966984</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>68.558572961495202</v>
+        <v>-30.592205294436866</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>45.124605695892569</v>
+        <v>1.0905040962944383</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.896567398303333</v>
+        <v>-48.669226027460041</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>-75.383827827594132</v>
+        <v>22.242710092472777</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.413772349598304</v>
+        <v>-91.892862381640668</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>87.687264225911008</v>
+        <v>-99.47172037111433</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>34.173164401398111</v>
+        <v>-24.688604289673606</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7474342790032864</v>
+        <v>-9.6872200147277425</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>62.734773166849379</v>
+        <v>92.918776082439621</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>35.08227653765644</v>
+        <v>-22.928414906391566</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>46.775198330566639</v>
+        <v>89.359283312005346</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>30.890810904733229</v>
+        <v>50.211060393991062</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>36.991855352168017</v>
+        <v>-1.8544950846662402</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.252221414973022</v>
+        <v>-94.070922330847594</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>14.996136385060893</v>
+        <v>-59.255212663779979</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>12.529113314236426</v>
+        <v>76.385726499382571</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>47.426870744577371</v>
+        <v>-8.2712602419270382</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>-63.011133748535642</v>
+        <v>10.868873102166063</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>82.276896957420973</v>
+        <v>-22.878300572028152</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>-90.798474855642837</v>
+        <v>-9.6862875738882508</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>-36.890231258225569</v>
+        <v>-65.806690164953707</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>94.735263758007875</v>
+        <v>71.61769359791856</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>91.963304393359579</v>
+        <v>-9.1127036368815766</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>84.668110224688206</v>
+        <v>-80.240498649425774</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>79.11375056711961</v>
+        <v>13.369552109016141</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>-26.592295397223722</v>
+        <v>-81.60109904416808</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>-52.461801272048916</v>
+        <v>-79.424050133567761</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>89.370417094044086</v>
+        <v>-67.673274812655947</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>80.313547017795827</v>
+        <v>87.749825850748721</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>56.209933178755364</v>
+        <v>-95.98875935090237</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>52.431314720499785</v>
+        <v>66.158590302319254</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>-58.778132310643528</v>
+        <v>8.4523112012071095</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>86.975636721236953</v>
+        <v>87.018964851437715</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2734534561399045</v>
+        <v>-85.667079139079021</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>-42.25322503889344</v>
+        <v>45.529704370866057</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>-58.046414226125378</v>
+        <v>-11.011909003766405</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>-57.780960917353788</v>
+        <v>-70.001839634501948</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>-25.01591282447815</v>
+        <v>-53.182686489468864</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.5203764624137222</v>
+        <v>69.064895748828917</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>16.5128794570293</v>
+        <v>12.427999019500291</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>-28.302902308302407</v>
+        <v>-15.511759139829095</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>86.750276863784023</v>
+        <v>-26.771510561419262</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.9017273184284136</v>
+        <v>29.429363505227457</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>16.710378116905275</v>
+        <v>72.698223831125404</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>54.892547707407658</v>
+        <v>-57.291956427574696</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>-43.428683917878018</v>
+        <v>95.673392986198081</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>14.213393361320655</v>
+        <v>-31.738387505978082</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>-32.72349634997201</v>
+        <v>98.3661759299724</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>-48.514046145706381</v>
+        <v>-37.024744386529918</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>-49.212351404173035</v>
+        <v>57.757056356257209</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>-39.504860393821218</v>
+        <v>66.110398221510053</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>81.693488193435172</v>
+        <v>-42.212832239186348</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>23.252874960753658</v>
+        <v>36.570317926003099</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>-75.533134229607924</v>
+        <v>67.506836247464662</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5754057650915172</v>
+        <v>-33.767725052249958</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>68.430204047758338</v>
+        <v>98.810867272244252</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>-37.557189145604887</v>
+        <v>-41.738452912892399</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.215953652256701</v>
+        <v>84.929313899042995</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.9457524776323822</v>
+        <v>77.336146631046404</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>-82.297840972154006</v>
+        <v>58.696366060528931</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>36.733725896840042</v>
+        <v>1.4693282896664641</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>-40.358839318992132</v>
+        <v>-44.921368467970126</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>99.94319276508989</v>
+        <v>-87.853721941328189</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>30.340939609861692</v>
+        <v>40.828512116902118</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>13.847255000997933</v>
+        <v>-28.617236404610068</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2817026931260074</v>
+        <v>49.474205896161266</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.369439251287488</v>
+        <v>-23.021304887701817</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>80.4153291322516</v>
+        <v>93.039432953399455</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>-87.48621376165049</v>
+        <v>-69.238047423988974</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>53.615838717427636</v>
+        <v>2.4865587926759929</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.9333102858184645</v>
+        <v>-66.871806483725777</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>-86.518413953675676</v>
+        <v>-52.698405880720031</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>-62.359219612386575</v>
+        <v>78.780393279599252</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>-46.220624983428074</v>
+        <v>-58.464894266368781</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>19.798024221988371</v>
+        <v>-56.418871163240937</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>-76.76004149603412</v>
+        <v>-81.321224690596125</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="0"/>
-        <v>-37.530660767145932</v>
+        <v>31.302330005919941</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>85.705063767060608</v>
+        <v>62.321845137399379</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>36.482598550601068</v>
+        <v>87.799412846751721</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-40.756277459895941</v>
+        <v>61.205178689016833</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>12.865243203276293</v>
+        <v>58.13623836696479</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.344985289023413</v>
+        <v>-62.422056476415747</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>61.432816792876167</v>
+        <v>14.477333756747839</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.317630764585672</v>
+        <v>-46.12660979985921</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>96.136508839384277</v>
+        <v>19.908438448649619</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>-79.211029154459908</v>
+        <v>-13.28662964339307</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0057307515568965</v>
+        <v>-25.598532759681319</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>-66.467784532701643</v>
+        <v>62.27254707862383</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="0"/>
-        <v>-39.721474493201846</v>
+        <v>71.090917161281226</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>-25.277972669078409</v>
+        <v>68.486520924634874</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5579850724099202</v>
+        <v>33.232898065947239</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>-31.07244016775401</v>
+        <v>-52.596676200896454</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>63.599180850875001</v>
+        <v>19.223104842093178</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>18.458532197033108</v>
+        <v>-13.962544022195772</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>30.947498029702416</v>
+        <v>26.249556537599901</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.44047306509207829</v>
+        <v>-93.093000641263728</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>-48.47370669722828</v>
+        <v>-11.778843280528079</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>-73.175087375677379</v>
+        <v>44.522121394023998</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.309279085184983</v>
+        <v>-53.786038169707794</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>-70.492990961191595</v>
+        <v>-35.275365455109764</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
-        <v>-65.621292485442709</v>
+        <v>3.3169817173215961</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>-84.227826707033756</v>
+        <v>-48.338541160123569</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>-36.369929794035237</v>
+        <v>21.666507854037476</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>96.833452591494023</v>
+        <v>-68.412391815373113</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>97.388438423043652</v>
+        <v>-16.979414007176061</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5006478465662241</v>
+        <v>-53.508640337302516</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7463593785018361</v>
+        <v>-44.702915589114077</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>-99.919661742957345</v>
+        <v>-12.056532409568874</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>83.175819071664279</v>
+        <v>65.397618376783157</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>27.142160280987056</v>
+        <v>-81.425133263020996</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60346954872190395</v>
+        <v>-96.887476400333682</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>91.307997245652416</v>
+        <v>90.071820264915146</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="0"/>
-        <v>-25.749744538662583</v>
+        <v>79.313080294646937</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>72.262136019908979</v>
+        <v>80.887233889726986</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>-78.786855201529505</v>
+        <v>-78.227380033119218</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>64.163330193659959</v>
+        <v>-58.611868135521995</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.9614471221688348</v>
+        <v>-38.581307539595677</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.98019471362575</v>
+        <v>-36.2935310881793</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>-56.95320998649678</v>
+        <v>86.287393637767934</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>63.869367716634059</v>
+        <v>55.828817222443007</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>-53.537772594080081</v>
+        <v>-26.143336070114501</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>-34.086456773405189</v>
+        <v>56.033462023748228</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>35.583907925874428</v>
+        <v>59.528239404490449</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="0"/>
-        <v>-89.387780643882351</v>
+        <v>42.923005210118532</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="0"/>
-        <v>21.983411634433708</v>
+        <v>33.260173459132204</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>-83.684642666101155</v>
+        <v>-44.433297702866149</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>50.997270230019865</v>
+        <v>19.101790401107181</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0457958307039235</v>
+        <v>58.536562383736111</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>-53.534072919768036</v>
+        <v>11.275211286140234</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>-84.148043980723799</v>
+        <v>60.072799049806235</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>-29.884013540781723</v>
+        <v>-83.139072624154949</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>23.873931117907915</v>
+        <v>-4.1820586900692263</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>76.820384704954705</v>
+        <v>-50.391832206868955</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>11.605020449211125</v>
+        <v>-36.922980096800352</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>87.415106935683724</v>
+        <v>56.349429763988098</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="0"/>
-        <v>43.932513239456114</v>
+        <v>8.1509118948490027</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="0"/>
-        <v>-74.782848418487234</v>
+        <v>50.738507843573132</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>-95.210084303317657</v>
+        <v>57.390991562339252</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>52.357026565812816</v>
+        <v>42.566903846812977</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>84.07207817076025</v>
+        <v>44.264032502911306</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>-96.796472768877706</v>
+        <v>-11.438981840840043</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>-65.618792614513907</v>
+        <v>28.669990563778214</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.1096409574168007</v>
+        <v>-8.2872479702038788</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>-77.708883965699755</v>
+        <v>-23.55858151118926</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>-45.871296150286</v>
+        <v>-73.427531769445139</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>70.1583623446042</v>
+        <v>72.629529171632669</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>43.646219490660712</v>
+        <v>3.8552744244476571</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="0"/>
-        <v>20.778455951360414</v>
+        <v>-50.160423339398989</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="0"/>
-        <v>15.885561445062393</v>
+        <v>-35.435793808710869</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>50.078658543482987</v>
+        <v>98.638444592776011</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>-29.736062136438377</v>
+        <v>-10.388639557047867</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>41.139228832571206</v>
+        <v>-65.571056945612227</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>46.823804471339344</v>
+        <v>47.141861026481592</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>26.357952593703175</v>
+        <v>34.231292242389202</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>-97.940975933697686</v>
+        <v>57.460444967612261</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>93.700011564879645</v>
+        <v>-97.705027593120988</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>53.865935975541959</v>
+        <v>-15.134540817553727</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.039865308391612</v>
+        <v>96.474890899022057</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>28.629439073934975</v>
+        <v>-5.6673519608453091</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9495159441354986</v>
+        <v>-19.359761443504681</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.810667613167467</v>
+        <v>-1.3226088636213831</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>32.097795729258053</v>
+        <v>-24.355378215703723</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>-57.93840346670256</v>
+        <v>16.86061665599199</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>-53.535800762210343</v>
+        <v>-43.389128456143425</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.436271380054905</v>
+        <v>-52.84844954321963</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-49.564791037612579</v>
+        <v>-94.748264853835806</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>90.833474322320683</v>
+        <v>-38.182561583090148</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>31.581916469544012</v>
+        <v>-93.090479870412679</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7540318698760871</v>
+        <v>-64.369095235641169</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>69.902636310733072</v>
+        <v>28.027304955072339</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>94.001743905720701</v>
+        <v>-68.06882147914078</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="1"/>
-        <v>41.619984603658821</v>
+        <v>80.186086692510628</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="1"/>
-        <v>-87.864953683644302</v>
+        <v>-10.474353592331283</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>78.336492639725407</v>
+        <v>-34.971547448964756</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>27.279629920457012</v>
+        <v>-67.834374293757364</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>-89.386678538771321</v>
+        <v>-17.510408418763618</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>-44.146206269726093</v>
+        <v>-26.388221933968197</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>-89.036656340458052</v>
+        <v>-79.474740168917918</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>-75.967573622695369</v>
+        <v>74.621376637292059</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.2644031708538108</v>
+        <v>-5.293118939734029</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>85.948630884464563</v>
+        <v>-77.308562731981837</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>84.553032852682833</v>
+        <v>-14.991444636705097</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>88.213898305583626</v>
+        <v>94.677122481180021</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="1"/>
-        <v>-85.605806385526037</v>
+        <v>-78.917865996166228</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="1"/>
-        <v>-86.33471878435914</v>
+        <v>54.618196645134987</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>63.957494262899445</v>
+        <v>43.601839281938027</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>22.258492235092504</v>
+        <v>46.312080957475018</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>-82.32078432025051</v>
+        <v>36.043952690068465</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>-37.680696646264124</v>
+        <v>-59.800496147396245</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>47.248014118366598</v>
+        <v>-75.972575539379946</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>-33.953519456948825</v>
+        <v>68.250933975727094</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.377316792116602</v>
+        <v>49.060053483875606</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>95.93790256478394</v>
+        <v>-71.582231610126854</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>-75.810557309636039</v>
+        <v>30.632407901011305</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>-75.83698050390413</v>
+        <v>17.682647518085304</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="1"/>
-        <v>49.333182750634478</v>
+        <v>64.787680571323051</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="1"/>
-        <v>-70.0978357218996</v>
+        <v>44.505216694062966</v>
       </c>
     </row>
   </sheetData>

--- a/jacobi/src/test/resources/jacobi/test/data/FrancisQRCreateBulgeTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/FrancisQRCreateBulgeTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="24915" windowHeight="9525" activeTab="2"/>
+    <workbookView xWindow="2475" yWindow="930" windowWidth="24915" windowHeight="9525" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="5x5" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,7 +1494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:K4"/>
     </sheetView>
   </sheetViews>
@@ -2345,8 +2345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3013,6 +3013,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3020,7 +3021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:E30"/>
     </sheetView>
   </sheetViews>
@@ -3913,7 +3914,7 @@
   <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:F63"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5219,1001 +5220,1001 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">200*RAND()-100</f>
-        <v>-46.925372575573434</v>
+        <v>-3.0716399113642723</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:L16" ca="1" si="0">200*RAND()-100</f>
-        <v>-13.806434893713799</v>
+        <v>-61.547750905314238</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.06468718746099</v>
+        <v>12.34170563471541</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>85.098428340448976</v>
+        <v>9.6345095785354147</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>68.850016756807349</v>
+        <v>-61.263078207623003</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>-91.929674456254489</v>
+        <v>-9.5605478876429117</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>51.305876360876056</v>
+        <v>43.871484865315693</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>-33.979223465604321</v>
+        <v>87.597183340563561</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>-34.264973924702886</v>
+        <v>-68.043777281591986</v>
       </c>
       <c r="J1">
         <f t="shared" ca="1" si="0"/>
-        <v>66.588692243478533</v>
+        <v>40.97819686045213</v>
       </c>
       <c r="K1">
         <f t="shared" ca="1" si="0"/>
-        <v>88.916947674173457</v>
+        <v>-75.066235421265489</v>
       </c>
       <c r="L1">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.9244715345020893</v>
+        <v>-60.378994827128231</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:L20" ca="1" si="1">200*RAND()-100</f>
-        <v>-76.165866383188501</v>
+        <v>-68.440876528056918</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.653132371660334</v>
+        <v>14.215047012892796</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>94.500678151501461</v>
+        <v>30.487004050113825</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>-29.730188915386634</v>
+        <v>-90.657421680341173</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.179001932480375</v>
+        <v>-77.642313531612103</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>50.87366160743511</v>
+        <v>-60.910205953138721</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>-97.156592526860123</v>
+        <v>19.785774863165173</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.870471492104485</v>
+        <v>-39.688320427826952</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>71.357314169765829</v>
+        <v>6.633797744113437</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>70.043662771641436</v>
+        <v>48.458752415685296</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>-61.144246792332879</v>
+        <v>99.993991810465474</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>12.068685023903342</v>
+        <v>92.191636628333583</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>96.602634331353187</v>
+        <v>-14.925584025501919</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>83.526563711228079</v>
+        <v>-76.264031921846723</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>-87.370140173728601</v>
+        <v>-78.145532214785618</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>-48.978993512220704</v>
+        <v>-53.304875423016853</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>68.353200840208018</v>
+        <v>-12.602005586507332</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>61.562997194824447</v>
+        <v>38.315474323799833</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.005036920562759</v>
+        <v>-67.544258610199037</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9621387619660027</v>
+        <v>74.611517690249656</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>56.065970572335516</v>
+        <v>-50.193800046486878</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.7089536928559568</v>
+        <v>56.6074166169563</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>74.462746072455587</v>
+        <v>58.708081651855338</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>41.63846897401757</v>
+        <v>-19.503233565363161</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>-29.69563981812027</v>
+        <v>95.102082295260573</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>-71.710598642581644</v>
+        <v>74.839042250228943</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>-31.708912787620932</v>
+        <v>48.039582804337954</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>90.424145711600346</v>
+        <v>49.66300709466401</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>21.188354469938204</v>
+        <v>-10.589368995251448</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>75.980304895134509</v>
+        <v>-80.570127436571255</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>69.580825493966984</v>
+        <v>-11.184669280684957</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>-30.592205294436866</v>
+        <v>-64.308078106884594</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0905040962944383</v>
+        <v>22.412930900458022</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>-48.669226027460041</v>
+        <v>-67.81819974591896</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>22.242710092472777</v>
+        <v>2.2340924374935724</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>-91.892862381640668</v>
+        <v>-78.717300945903347</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>-99.47172037111433</v>
+        <v>-85.694411571306901</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.688604289673606</v>
+        <v>15.991996002615267</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.6872200147277425</v>
+        <v>56.24190771803589</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>92.918776082439621</v>
+        <v>44.749593422670216</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>-22.928414906391566</v>
+        <v>87.781210323301195</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>89.359283312005346</v>
+        <v>24.848209675045126</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>50.211060393991062</v>
+        <v>75.660393172752208</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8544950846662402</v>
+        <v>-40.72831088629998</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>-94.070922330847594</v>
+        <v>57.267299439891133</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>-59.255212663779979</v>
+        <v>-0.51058694356136414</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>76.385726499382571</v>
+        <v>74.449948095065167</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.2712602419270382</v>
+        <v>39.629589087928139</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>10.868873102166063</v>
+        <v>-99.838915839947489</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>-22.878300572028152</v>
+        <v>-47.790998065900034</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.6862875738882508</v>
+        <v>62.948768038600832</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>-65.806690164953707</v>
+        <v>-6.5358263898516356</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>71.61769359791856</v>
+        <v>-25.256554857690844</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.1127036368815766</v>
+        <v>36.361503619129962</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>-80.240498649425774</v>
+        <v>23.317501108310722</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>13.369552109016141</v>
+        <v>-33.442056983014282</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>-81.60109904416808</v>
+        <v>-98.143952465092397</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>-79.424050133567761</v>
+        <v>-66.180187046892016</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>-67.673274812655947</v>
+        <v>-54.314134719020402</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>87.749825850748721</v>
+        <v>8.482393978744355</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>-95.98875935090237</v>
+        <v>-55.464118065326538</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>66.158590302319254</v>
+        <v>75.393804874744177</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4523112012071095</v>
+        <v>-17.5482214076834</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>87.018964851437715</v>
+        <v>-11.399911035645218</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>-85.667079139079021</v>
+        <v>-23.249742103587153</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>45.529704370866057</v>
+        <v>-93.620728446150039</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.011909003766405</v>
+        <v>-80.798296153132213</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>-70.001839634501948</v>
+        <v>6.848895061641187</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>-53.182686489468864</v>
+        <v>-0.73802821248921191</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>69.064895748828917</v>
+        <v>28.727563278150001</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>12.427999019500291</v>
+        <v>38.754473559811686</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.511759139829095</v>
+        <v>65.109533324953787</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>-26.771510561419262</v>
+        <v>-23.403569513244847</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>29.429363505227457</v>
+        <v>-61.067422347445309</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>72.698223831125404</v>
+        <v>2.3903718580467341</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>-57.291956427574696</v>
+        <v>-63.238872383514597</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>95.673392986198081</v>
+        <v>-23.530888851213774</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>-31.738387505978082</v>
+        <v>-36.184289583898099</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>98.3661759299724</v>
+        <v>66.104083855804078</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>-37.024744386529918</v>
+        <v>62.619466151274423</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>57.757056356257209</v>
+        <v>-54.469887415388428</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>66.110398221510053</v>
+        <v>36.646715916808091</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>-42.212832239186348</v>
+        <v>49.745624100859544</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>36.570317926003099</v>
+        <v>81.190598474416248</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>67.506836247464662</v>
+        <v>18.242570323804784</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>-33.767725052249958</v>
+        <v>74.847471392847382</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>98.810867272244252</v>
+        <v>57.748515541777493</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>-41.738452912892399</v>
+        <v>24.118044863114179</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>84.929313899042995</v>
+        <v>91.74128831017407</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>77.336146631046404</v>
+        <v>30.396795964907511</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>58.696366060528931</v>
+        <v>71.908563255556032</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4693282896664641</v>
+        <v>-69.179386510797286</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>-44.921368467970126</v>
+        <v>-9.2322158803725358</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>-87.853721941328189</v>
+        <v>-48.19801376697017</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>40.828512116902118</v>
+        <v>-24.358095582084331</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>-28.617236404610068</v>
+        <v>-62.620226623038256</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>49.474205896161266</v>
+        <v>-37.756891872407536</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>-23.021304887701817</v>
+        <v>-78.575491346577238</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>93.039432953399455</v>
+        <v>6.9254647975106849</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>-69.238047423988974</v>
+        <v>93.452140029431348</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4865587926759929</v>
+        <v>-99.783970896467068</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>-66.871806483725777</v>
+        <v>52.173009797543585</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>-52.698405880720031</v>
+        <v>7.6415845630691592</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>78.780393279599252</v>
+        <v>-14.573314469095294</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>-58.464894266368781</v>
+        <v>-30.972111118253892</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>-56.418871163240937</v>
+        <v>37.940286208871271</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>-81.321224690596125</v>
+        <v>-44.715874599028197</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="0"/>
-        <v>31.302330005919941</v>
+        <v>-51.944402318010965</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>62.321845137399379</v>
+        <v>-6.3718861133146731</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>87.799412846751721</v>
+        <v>-32.37805373568041</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>61.205178689016833</v>
+        <v>18.400509737738901</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>58.13623836696479</v>
+        <v>-80.277645859004878</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>-62.422056476415747</v>
+        <v>-77.530602651392911</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>14.477333756747839</v>
+        <v>29.683206976437305</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>-46.12660979985921</v>
+        <v>63.386119468734989</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>19.908438448649619</v>
+        <v>71.233383256816467</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>-13.28662964339307</v>
+        <v>39.42327556376793</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>-25.598532759681319</v>
+        <v>-86.729466526713537</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>62.27254707862383</v>
+        <v>-90.828662769708075</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="0"/>
-        <v>71.090917161281226</v>
+        <v>-95.105580950380954</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>68.486520924634874</v>
+        <v>-70.051964945470132</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>33.232898065947239</v>
+        <v>95.594212172940274</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>-52.596676200896454</v>
+        <v>-22.939461175080083</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>19.223104842093178</v>
+        <v>16.493000976365749</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>-13.962544022195772</v>
+        <v>-10.635769303983977</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>26.249556537599901</v>
+        <v>-42.628057042079014</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>-93.093000641263728</v>
+        <v>-30.595495746016738</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.778843280528079</v>
+        <v>37.466390748770351</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>44.522121394023998</v>
+        <v>98.34556451443575</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>-53.786038169707794</v>
+        <v>84.228710685853827</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>-35.275365455109764</v>
+        <v>79.915441124271609</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3169817173215961</v>
+        <v>94.241731466392196</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>-48.338541160123569</v>
+        <v>-3.347056659337639</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>21.666507854037476</v>
+        <v>-36.426471804614444</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>-68.412391815373113</v>
+        <v>-85.548167891790513</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.979414007176061</v>
+        <v>72.632865394414608</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>-53.508640337302516</v>
+        <v>21.945554584262567</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>-44.702915589114077</v>
+        <v>3.0944585849783408</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.056532409568874</v>
+        <v>-33.562080303649751</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>65.397618376783157</v>
+        <v>98.064118473313499</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>-81.425133263020996</v>
+        <v>-51.439206518088689</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>-96.887476400333682</v>
+        <v>32.464531575480436</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>90.071820264915146</v>
+        <v>88.503326398254472</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="0"/>
-        <v>79.313080294646937</v>
+        <v>-69.184549939713094</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>80.887233889726986</v>
+        <v>-67.36701881571642</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>-78.227380033119218</v>
+        <v>70.569419620261499</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>-58.611868135521995</v>
+        <v>-76.508294404217779</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>-38.581307539595677</v>
+        <v>-5.0787346611384692</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>-36.2935310881793</v>
+        <v>44.666269261414158</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>86.287393637767934</v>
+        <v>47.397812584303182</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>55.828817222443007</v>
+        <v>-69.011622029055644</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>-26.143336070114501</v>
+        <v>-29.528510812315005</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>56.033462023748228</v>
+        <v>67.732023772706611</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>59.528239404490449</v>
+        <v>-88.403027872377621</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="0"/>
-        <v>42.923005210118532</v>
+        <v>-12.281044328488917</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="0"/>
-        <v>33.260173459132204</v>
+        <v>15.42756736723851</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>-44.433297702866149</v>
+        <v>-85.134280236702025</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>19.101790401107181</v>
+        <v>24.72037304771473</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>58.536562383736111</v>
+        <v>14.117088467405537</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>11.275211286140234</v>
+        <v>-59.909093440395054</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>60.072799049806235</v>
+        <v>56.16653453383887</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>-83.139072624154949</v>
+        <v>71.025190044390257</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.1820586900692263</v>
+        <v>-12.196177891221936</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>-50.391832206868955</v>
+        <v>-95.226179053927808</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>-36.922980096800352</v>
+        <v>-10.635701401495211</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>56.349429763988098</v>
+        <v>-42.689335025844422</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1509118948490027</v>
+        <v>-28.875113037005846</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="0"/>
-        <v>50.738507843573132</v>
+        <v>-89.544349244320443</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>57.390991562339252</v>
+        <v>-19.951693512502217</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>42.566903846812977</v>
+        <v>-13.362420441422685</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>44.264032502911306</v>
+        <v>-69.951779449412584</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.438981840840043</v>
+        <v>-2.03850524721787</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>28.669990563778214</v>
+        <v>62.40479205380683</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.2872479702038788</v>
+        <v>65.701332246018836</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>-23.55858151118926</v>
+        <v>-19.522480404166103</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>-73.427531769445139</v>
+        <v>-54.392207847965054</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>72.629529171632669</v>
+        <v>65.437599701704215</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8552744244476571</v>
+        <v>-86.609923188090761</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="0"/>
-        <v>-50.160423339398989</v>
+        <v>83.857956921508872</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="0"/>
-        <v>-35.435793808710869</v>
+        <v>-93.629397174531775</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>98.638444592776011</v>
+        <v>42.199493850039801</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.388639557047867</v>
+        <v>-15.18553323255361</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>-65.571056945612227</v>
+        <v>56.803257339652646</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>47.141861026481592</v>
+        <v>-5.8296680707605759</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>34.231292242389202</v>
+        <v>97.763062170147123</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>57.460444967612261</v>
+        <v>32.079745159984782</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>-97.705027593120988</v>
+        <v>27.719716268148503</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.134540817553727</v>
+        <v>-50.155471674609608</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>96.474890899022057</v>
+        <v>26.650399981891198</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.6673519608453091</v>
+        <v>58.496309265781719</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.359761443504681</v>
+        <v>30.820480520943079</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.3226088636213831</v>
+        <v>16.335764104943351</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.355378215703723</v>
+        <v>28.434564586468724</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>16.86061665599199</v>
+        <v>97.423750205520776</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>-43.389128456143425</v>
+        <v>-25.185143961586306</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>-52.84844954321963</v>
+        <v>93.552519066469188</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-94.748264853835806</v>
+        <v>48.006518052844342</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>-38.182561583090148</v>
+        <v>-17.535437581392159</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>-93.090479870412679</v>
+        <v>68.517397574784212</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>-64.369095235641169</v>
+        <v>97.768258297370778</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>28.027304955072339</v>
+        <v>65.75487397581702</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>-68.06882147914078</v>
+        <v>62.2747176570102</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="1"/>
-        <v>80.186086692510628</v>
+        <v>-61.518507918462603</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.474353592331283</v>
+        <v>26.640267755374055</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>-34.971547448964756</v>
+        <v>30.7618543610308</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>-67.834374293757364</v>
+        <v>65.472185234648236</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.510408418763618</v>
+        <v>6.8591519696012568</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>-26.388221933968197</v>
+        <v>83.234247826314686</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>-79.474740168917918</v>
+        <v>-36.920508855607579</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>74.621376637292059</v>
+        <v>34.238850485535465</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.293118939734029</v>
+        <v>81.561112381799205</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>-77.308562731981837</v>
+        <v>57.110926068026714</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.991444636705097</v>
+        <v>-16.013845521586262</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>94.677122481180021</v>
+        <v>31.98611494608997</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="1"/>
-        <v>-78.917865996166228</v>
+        <v>-50.08021563586729</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="1"/>
-        <v>54.618196645134987</v>
+        <v>-66.321656200806927</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>43.601839281938027</v>
+        <v>-25.453406331702254</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>46.312080957475018</v>
+        <v>9.1918866106879022</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>36.043952690068465</v>
+        <v>46.154387559025849</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>-59.800496147396245</v>
+        <v>28.910170207200025</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>-75.972575539379946</v>
+        <v>-8.7458011855591451</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>68.250933975727094</v>
+        <v>91.350810611171511</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>49.060053483875606</v>
+        <v>-81.117010265407913</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>-71.582231610126854</v>
+        <v>-14.649716109564565</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>30.632407901011305</v>
+        <v>-29.542505084631699</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>17.682647518085304</v>
+        <v>-60.991281619462654</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="1"/>
-        <v>64.787680571323051</v>
+        <v>-27.917689948809993</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="1"/>
-        <v>44.505216694062966</v>
+        <v>96.582420663076448</v>
       </c>
     </row>
   </sheetData>
